--- a/default-mappings-xlsx/dataQuality/DataQuality_Mapping_Weclapp_DE.xlsx
+++ b/default-mappings-xlsx/dataQuality/DataQuality_Mapping_Weclapp_DE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBB65A6-36A9-444E-9B71-B0A1AB9DC2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE337233-4465-40C7-9EEE-657ECE14C3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1052,6 +1052,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1069,24 +1087,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1741,8 +1741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <dimension ref="A1:BD39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1789,42 +1789,42 @@
         <v>58</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="48"/>
-      <c r="I3" s="49"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="55"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="47" t="s">
+      <c r="K3" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
-      <c r="O3" s="47" t="s">
+      <c r="L3" s="54"/>
+      <c r="M3" s="55"/>
+      <c r="O3" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="49"/>
-      <c r="S3" s="47" t="s">
+      <c r="P3" s="54"/>
+      <c r="Q3" s="55"/>
+      <c r="S3" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="T3" s="48"/>
-      <c r="U3" s="49"/>
-      <c r="W3" s="47" t="s">
+      <c r="T3" s="54"/>
+      <c r="U3" s="55"/>
+      <c r="W3" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="49"/>
-      <c r="AA3" s="47" t="s">
+      <c r="X3" s="54"/>
+      <c r="Y3" s="55"/>
+      <c r="AA3" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="49"/>
-      <c r="AE3" s="50" t="s">
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="55"/>
+      <c r="AE3" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="AF3" s="51"/>
-      <c r="AG3" s="52"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="58"/>
     </row>
     <row r="4" spans="1:56" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:56" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3364,9 +3364,9 @@
       <c r="A33" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="55"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="49"/>
       <c r="E33" s="27"/>
       <c r="G33" s="33"/>
       <c r="H33" s="34"/>
@@ -3394,11 +3394,11 @@
       <c r="A34" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="54"/>
-      <c r="D34" s="55"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="49"/>
       <c r="E34" s="27"/>
       <c r="G34" s="33"/>
       <c r="H34" s="34"/>
@@ -3426,11 +3426,11 @@
       <c r="A35" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="55"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="49"/>
       <c r="E35" s="27"/>
       <c r="G35" s="33"/>
       <c r="H35" s="34"/>
@@ -3456,9 +3456,9 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="55"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="49"/>
       <c r="E36" s="27"/>
       <c r="G36" s="33"/>
       <c r="H36" s="34"/>
@@ -3484,9 +3484,9 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="55"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="49"/>
       <c r="E37" s="27"/>
       <c r="G37" s="33"/>
       <c r="H37" s="34"/>
@@ -3512,9 +3512,9 @@
     </row>
     <row r="38" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="58"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="52"/>
       <c r="E38" s="29"/>
       <c r="G38" s="36"/>
       <c r="H38" s="37"/>
@@ -3545,12 +3545,6 @@
     <protectedRange sqref="A33:I38 AE33:AG38 AA33:AC38 W33:Y38 S33:U38 O33:Q38 K33:M38" name="Questionnaire"/>
   </protectedRanges>
   <mergeCells count="13">
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="O3:Q3"/>
@@ -3558,6 +3552,12 @@
     <mergeCell ref="AE3:AG3"/>
     <mergeCell ref="W3:Y3"/>
     <mergeCell ref="S3:U3"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
   </mergeCells>
   <conditionalFormatting sqref="A30:I31 B9:I29 B6:E29 G6:I29 AE6:AG31 O30:Q31 K30:M31">
     <cfRule type="expression" dxfId="15" priority="165">

--- a/default-mappings-xlsx/dataQuality/DataQuality_Mapping_Weclapp_DE.xlsx
+++ b/default-mappings-xlsx/dataQuality/DataQuality_Mapping_Weclapp_DE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE337233-4465-40C7-9EEE-657ECE14C3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDA6432-2794-4F45-82BE-EBA486EBF97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -1052,6 +1052,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1069,24 +1087,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1741,8 +1741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <dimension ref="A1:BD39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1789,42 +1789,42 @@
         <v>58</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="55"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="49"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="53" t="s">
+      <c r="K3" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="54"/>
-      <c r="M3" s="55"/>
-      <c r="O3" s="53" t="s">
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
+      <c r="O3" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="55"/>
-      <c r="S3" s="53" t="s">
+      <c r="P3" s="48"/>
+      <c r="Q3" s="49"/>
+      <c r="S3" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="T3" s="54"/>
-      <c r="U3" s="55"/>
-      <c r="W3" s="53" t="s">
+      <c r="T3" s="48"/>
+      <c r="U3" s="49"/>
+      <c r="W3" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="55"/>
-      <c r="AA3" s="53" t="s">
+      <c r="X3" s="48"/>
+      <c r="Y3" s="49"/>
+      <c r="AA3" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="55"/>
-      <c r="AE3" s="56" t="s">
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="49"/>
+      <c r="AE3" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="58"/>
+      <c r="AF3" s="51"/>
+      <c r="AG3" s="52"/>
     </row>
     <row r="4" spans="1:56" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:56" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3364,9 +3364,9 @@
       <c r="A33" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="49"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="55"/>
       <c r="E33" s="27"/>
       <c r="G33" s="33"/>
       <c r="H33" s="34"/>
@@ -3394,11 +3394,11 @@
       <c r="A34" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="47" t="s">
+      <c r="B34" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="48"/>
-      <c r="D34" s="49"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="55"/>
       <c r="E34" s="27"/>
       <c r="G34" s="33"/>
       <c r="H34" s="34"/>
@@ -3426,11 +3426,11 @@
       <c r="A35" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="48"/>
-      <c r="D35" s="49"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="55"/>
       <c r="E35" s="27"/>
       <c r="G35" s="33"/>
       <c r="H35" s="34"/>
@@ -3456,9 +3456,9 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="49"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="55"/>
       <c r="E36" s="27"/>
       <c r="G36" s="33"/>
       <c r="H36" s="34"/>
@@ -3484,9 +3484,9 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="49"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="55"/>
       <c r="E37" s="27"/>
       <c r="G37" s="33"/>
       <c r="H37" s="34"/>
@@ -3512,9 +3512,9 @@
     </row>
     <row r="38" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="52"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="58"/>
       <c r="E38" s="29"/>
       <c r="G38" s="36"/>
       <c r="H38" s="37"/>
@@ -3545,6 +3545,12 @@
     <protectedRange sqref="A33:I38 AE33:AG38 AA33:AC38 W33:Y38 S33:U38 O33:Q38 K33:M38" name="Questionnaire"/>
   </protectedRanges>
   <mergeCells count="13">
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="O3:Q3"/>
@@ -3552,12 +3558,6 @@
     <mergeCell ref="AE3:AG3"/>
     <mergeCell ref="W3:Y3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
   </mergeCells>
   <conditionalFormatting sqref="A30:I31 B9:I29 B6:E29 G6:I29 AE6:AG31 O30:Q31 K30:M31">
     <cfRule type="expression" dxfId="15" priority="165">
@@ -3623,12 +3623,15 @@
       <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D30" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG6:AG30 AC6:AC30 U6:U30 Q6:Q30 M6:M30 I6:I30 Y6:Y30 M33:M38 Q33:Q38 U33:U38 Y33:Y38 I32:I38 AC33:AC38 AG33:AG38" xr:uid="{6781E31C-3C54-43DA-9309-5CEB30F9E64D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I32" xr:uid="{6781E31C-3C54-43DA-9309-5CEB30F9E64D}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I30 M6:M30 Q6:Q30 U6:U30 Y6:Y30 AC6:AC30 AG6:AG30 AG33:AG38 AC33:AC38 Y33:Y38 U33:U38 Q33:Q38 M33:M38 I33:I38" xr:uid="{F0C6FB12-26DD-441F-850B-963AECAB3D8C}">
+      <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
